--- a/Literature_papers.xlsx
+++ b/Literature_papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD2746-E5F7-47ED-AB44-70E3B6982F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09752A-DDA8-499E-BA91-E78568A50240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D11DA996-F118-4FF1-8AFB-99B6E1AFC800}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D11DA996-F118-4FF1-8AFB-99B6E1AFC800}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -1241,7 +1241,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0C738F1-DECF-4966-83A3-DCADD94903BA}" name="Tabel1" displayName="Tabel1" ref="A1:H162" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H162" xr:uid="{D0C738F1-DECF-4966-83A3-DCADD94903BA}"/>
+  <autoFilter ref="A1:H162" xr:uid="{D0C738F1-DECF-4966-83A3-DCADD94903BA}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="DMP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
     <sortCondition ref="A1:A162"/>
   </sortState>
@@ -1564,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>266</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>277</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>311</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>324</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2614,7 +2620,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>274</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>310</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>59</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>314</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>314</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>317</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>47</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>280</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>280</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>82</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>243</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>309</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>316</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>282</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>251</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>91</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>255</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>72</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>73</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>197</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>27</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>63</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>63</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>4</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>4</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>15</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>78</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>54</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>247</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>228</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>228</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>315</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>64</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>89</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>68</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>19</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>38</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>23</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>23</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>67</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>268</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>319</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>312</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>62</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>321</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>55</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>50</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>253</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>84</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>87</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>30</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>48</v>
       </c>
@@ -4514,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7825D7-FD06-4385-AD08-1130E8897798}">
   <dimension ref="A7:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
